--- a/templates/(新報機單)轉出介宏格式範例.xlsx
+++ b/templates/(新報機單)轉出介宏格式範例.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>文件編碼</t>
     <phoneticPr fontId="22" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>台幣起岸價格</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件統編</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
@@ -173,10 +169,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_GETNO}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_GETADDRESS}</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -197,15 +189,15 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.SMALLNO}</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>${table:data.FILE_CODE}</t>
+    <t>${table:data.IL_EXNO}</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.ADDRESS}</t>
+    <t>${table:data.IL_G1}</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件者統編</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -214,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="0;__xd800_"/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0;__xd800_"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -884,7 +876,7 @@
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="21" fillId="24" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="21" fillId="24" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -923,10 +915,10 @@
     <xf numFmtId="49" fontId="26" fillId="24" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="24" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="24" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="26" fillId="24" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="24" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="24" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -947,40 +939,40 @@
     <xf numFmtId="0" fontId="26" fillId="24" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,7 +1025,161 @@
     <cellStyle name="壞" xfId="45" builtinId="27" customBuiltin="1"/>
     <cellStyle name="警告文字" xfId="46" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99FF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1079,168 +1225,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FF99"/>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1259,16 +1251,16 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="13"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1283,20 +1275,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="13"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1616,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1629,7 +1607,7 @@
     <col min="5" max="5" width="5.375" style="10" customWidth="1"/>
     <col min="6" max="6" width="6" style="13" customWidth="1"/>
     <col min="7" max="7" width="9.75" style="13" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="33" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="31" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="13" customWidth="1"/>
     <col min="10" max="10" width="9" style="13"/>
     <col min="11" max="11" width="7.125" style="13" customWidth="1"/>
@@ -1643,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="29.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1651,7 +1629,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="30"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1660,51 +1638,51 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
     </row>
     <row r="2" spans="1:43" ht="29.25" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="28"/>
+      <c r="E2" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="38"/>
       <c r="G2" s="24"/>
-      <c r="H2" s="31"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="6" t="e">
         <f>ROUND(H2*100/J2,0)</f>
         <v>#DIV/0!</v>
@@ -1749,21 +1727,21 @@
     </row>
     <row r="3" spans="1:43" ht="21.75" thickBot="1">
       <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="E3" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="31"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="6">
         <f>H3*10+100</f>
         <v>100</v>
@@ -1811,13 +1789,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="25" t="s">
         <v>2</v>
@@ -1825,41 +1803,41 @@
       <c r="G4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
         <v>4</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="M4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="21" t="s">
+      <c r="S4" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="R4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
@@ -1887,62 +1865,64 @@
       <c r="AQ4" s="11"/>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="35" t="s">
+      <c r="A5" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="F5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="G5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="H5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="K5" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="M5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="O5" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>46</v>
+      <c r="R5" s="32" t="str">
+        <f>IF(LEN($C5)&gt;13,"X","")</f>
+        <v>X</v>
+      </c>
+      <c r="S5" s="32" t="str">
+        <f>IF(LENB($P5)&gt;32,"X","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1955,137 +1935,137 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="cellIs" dxfId="4" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="cellIs" dxfId="34" priority="34" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="34" stopIfTrue="1" operator="greaterThan">
       <formula>2900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4:S5 R1:R1048576">
-    <cfRule type="cellIs" dxfId="33" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" stopIfTrue="1" operator="equal">
       <formula>"X"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C65536 C1 C4">
-    <cfRule type="expression" dxfId="32" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="36" stopIfTrue="1">
       <formula>COUNTIF($C:$C,C1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E65536 E1 E4">
-    <cfRule type="aboveAverage" dxfId="31" priority="32" stopIfTrue="1"/>
+    <cfRule type="aboveAverage" dxfId="28" priority="32" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C65536 C1 C4">
-    <cfRule type="duplicateValues" dxfId="30" priority="29" stopIfTrue="1"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="29" stopIfTrue="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2">
-    <cfRule type="cellIs" dxfId="29" priority="28" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="28" stopIfTrue="1" operator="greaterThan">
       <formula>2900</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="28" priority="25">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="26">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="26" priority="23">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="24">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="22" priority="19">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="20">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="16" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$S5="特特貨"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$S5="普特貨"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/templates/(新報機單)轉出介宏格式範例.xlsx
+++ b/templates/(新報機單)轉出介宏格式範例.xlsx
@@ -129,10 +129,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>${table:data.IL_BAGNO}</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>${table:data.IL_SMALLNO}</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   <si>
     <t>收件者統編</t>
     <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>${table:data.IL_BAGNOEX_NOREPEAT}</t>
+    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -232,6 +232,8 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -384,6 +386,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="16"/>
@@ -1595,7 +1598,7 @@
   <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1819,7 +1822,7 @@
         <v>6</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="20" t="s">
         <v>7</v>
@@ -1866,55 +1869,55 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="E5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="H5" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="35" t="s">
+      <c r="K5" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="33" t="s">
+      <c r="M5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="P5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="R5" s="32" t="str">
         <f>IF(LEN($C5)&gt;13,"X","")</f>
